--- a/_testdata/cognition_sp_test_missing_type.xlsx
+++ b/_testdata/cognition_sp_test_missing_type.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F25A0-F156-4F10-A7B8-23B8F9738E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5771A2CB-9BD4-40D3-B4D7-2E57FC5AE852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23730" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,7 +1251,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
